--- a/medicine/Psychotrope/Loch_Lomond_(distillerie)/Loch_Lomond_(distillerie).xlsx
+++ b/medicine/Psychotrope/Loch_Lomond_(distillerie)/Loch_Lomond_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Loch Lomond est une distillerie de whisky située à Alexandria dans le West Dunbartonshire en Écosse près du Loch Lomond.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Établie en 1964 dans une ancienne teinturerie[1], par les anciens propriétaires de la distillerie Littlemill, la distillerie Loch Lomond a repris le nom de son prédécesseur qui se situait de l'autre côté du loch, à Arrochar et qui opéra de 1814 à 1817. Fermée elle-même en 1984, elle ne dut sa survie qu'à l'action d'un embouteilleur indépendant de la région, l'entreprise Glen Catrine Bonded Warehouse Company Ltd., qui la racheta en 1985 pour accroître sa capacité de production et reprit la production de malt en 1987. La production de whisky de grain commença en 1994. C’était alors la seule distillerie en Écosse produisant du single malt et du whisky de grain. Deux nouveaux alambics à malt ont été ajoutés en 1999. Loch Lomond dispose d’un ensemble unique de trois types d’alambics. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Établie en 1964 dans une ancienne teinturerie, par les anciens propriétaires de la distillerie Littlemill, la distillerie Loch Lomond a repris le nom de son prédécesseur qui se situait de l'autre côté du loch, à Arrochar et qui opéra de 1814 à 1817. Fermée elle-même en 1984, elle ne dut sa survie qu'à l'action d'un embouteilleur indépendant de la région, l'entreprise Glen Catrine Bonded Warehouse Company Ltd., qui la racheta en 1985 pour accroître sa capacité de production et reprit la production de malt en 1987. La production de whisky de grain commença en 1994. C’était alors la seule distillerie en Écosse produisant du single malt et du whisky de grain. Deux nouveaux alambics à malt ont été ajoutés en 1999. Loch Lomond dispose d’un ensemble unique de trois types d’alambics. 
 En mars 2014, le groupe Loch Lomond a été cédé à Exponent, une société britannique de capital-investissement.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duncan Barton, le précédent propriétaire de la distillerie Littlemill, est à l’origine du site actuel de la distillerie Loch Lomond. Il y installa des alambics ‘pot still’ innovants dont le chapiteau évoque un alambic à colonne. Les alambics de Loch Lomond possèdent des plateaux dans la partie supérieure permettant un meilleur contact avec les vapeurs d’alcool et un procédé plus efficace. Ces alambics peuvent produire des émanations titrant jusqu’à 90% vol. alors que les alambics traditionnels ne montent qu’à 70% vol. environ. Ce type d’alambic permet de capter différentes notes aromatiques et les sélectionner ou rejeter parmi une large gamme de degrés alcooliques. C’est beaucoup plus difficile à réaliser via l’utilisation d’un alambic ‘pot still’ traditionnel.
 La distillerie élabore des whiskys single malts et des blends. Ses principaux produits sont :
@@ -583,9 +599,11 @@
           <t>Fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette marque est connue des tintinophiles, car elle apparaît parfois dans les albums de Tintin parus après la création de la marque[2]. À noter que la marque apparaît dans la version de l'Île noire refondue en 1966.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette marque est connue des tintinophiles, car elle apparaît parfois dans les albums de Tintin parus après la création de la marque. À noter que la marque apparaît dans la version de l'Île noire refondue en 1966.
 Le personnage de Sydney dans la BD Dykes to Watch Out For est également une consommatrice de Loch Lomond.
 </t>
         </is>
